--- a/output/instance_SMALL_scenario_2/column_variable_values_site0_iteration100.xlsx
+++ b/output/instance_SMALL_scenario_2/column_variable_values_site0_iteration100.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L46"/>
+  <dimension ref="A1:L82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,7 +635,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -1127,7 +1127,7 @@
         <v>1</v>
       </c>
       <c r="L20" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1195,17 +1195,13 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B23" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="1" t="n"/>
       <c r="C23" s="1" t="n">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="D23" s="1" t="n">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="E23" t="n">
         <v>100000</v>
@@ -1237,19 +1233,19 @@
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="1" t="n"/>
       <c r="D24" s="1" t="n">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>134607.97</v>
+        <v>139220.13</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -1269,19 +1265,19 @@
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="1" t="n"/>
       <c r="D25" s="1" t="n">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>167881.56</v>
+        <v>222643.99</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -1301,13 +1297,13 @@
       <c r="B26" s="1" t="n"/>
       <c r="C26" s="1" t="n"/>
       <c r="D26" s="1" t="n">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>209003.65</v>
+        <v>442529.76</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1333,19 +1329,19 @@
       <c r="B27" s="1" t="n"/>
       <c r="C27" s="1" t="n"/>
       <c r="D27" s="1" t="n">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>271125.72</v>
+        <v>822718.15</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -1365,19 +1361,19 @@
       <c r="B28" s="1" t="n"/>
       <c r="C28" s="1" t="n"/>
       <c r="D28" s="1" t="n">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>389644.14</v>
+        <v>1273747.15</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -1397,13 +1393,13 @@
       <c r="B29" s="1" t="n"/>
       <c r="C29" s="1" t="n"/>
       <c r="D29" s="1" t="n">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>537761.22</v>
+        <v>1569466.56</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -1429,13 +1425,13 @@
       <c r="B30" s="1" t="n"/>
       <c r="C30" s="1" t="n"/>
       <c r="D30" s="1" t="n">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>744159.1800000001</v>
+        <v>1812685.95</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -1461,13 +1457,13 @@
       <c r="B31" s="1" t="n"/>
       <c r="C31" s="1" t="n"/>
       <c r="D31" s="1" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>1052163.1</v>
+        <v>2048321.78</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -1493,13 +1489,13 @@
       <c r="B32" s="1" t="n"/>
       <c r="C32" s="1" t="n"/>
       <c r="D32" s="1" t="n">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>1341745.42</v>
+        <v>2237747.88</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -1525,13 +1521,13 @@
       <c r="B33" s="1" t="n"/>
       <c r="C33" s="1" t="n"/>
       <c r="D33" s="1" t="n">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>1697918.89</v>
+        <v>2434378.55</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -1557,13 +1553,13 @@
       <c r="B34" s="1" t="n"/>
       <c r="C34" s="1" t="n"/>
       <c r="D34" s="1" t="n">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>1984375.77</v>
+        <v>2566880.44</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -1589,13 +1585,13 @@
       <c r="B35" s="1" t="n"/>
       <c r="C35" s="1" t="n"/>
       <c r="D35" s="1" t="n">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>2240267.81</v>
+        <v>2741160.83</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -1621,16 +1617,16 @@
       <c r="B36" s="1" t="n"/>
       <c r="C36" s="1" t="n"/>
       <c r="D36" s="1" t="n">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>2482564.51</v>
+        <v>3052090.06</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>1002621.92</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1645,7 +1641,7 @@
         <v>1</v>
       </c>
       <c r="L36" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1653,13 +1649,13 @@
       <c r="B37" s="1" t="n"/>
       <c r="C37" s="1" t="n"/>
       <c r="D37" s="1" t="n">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>2684560.1</v>
+        <v>2588970.21</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -1685,16 +1681,16 @@
       <c r="B38" s="1" t="n"/>
       <c r="C38" s="1" t="n"/>
       <c r="D38" s="1" t="n">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>2837134.93</v>
+        <v>3120000</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1122522.64</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1709,7 +1705,7 @@
         <v>1</v>
       </c>
       <c r="L38" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1717,16 +1713,16 @@
       <c r="B39" s="1" t="n"/>
       <c r="C39" s="1" t="n"/>
       <c r="D39" s="1" t="n">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>3039664.14</v>
+        <v>2663669.77</v>
       </c>
       <c r="G39" t="n">
-        <v>1174920.57</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1741,7 +1737,7 @@
         <v>1</v>
       </c>
       <c r="L39" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="40">
@@ -1749,16 +1745,16 @@
       <c r="B40" s="1" t="n"/>
       <c r="C40" s="1" t="n"/>
       <c r="D40" s="1" t="n">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>2210581.46</v>
+        <v>3120000</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>3654507.06</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1773,30 +1769,36 @@
         <v>1</v>
       </c>
       <c r="L40" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="n"/>
-      <c r="B41" s="1" t="n"/>
-      <c r="C41" s="1" t="n"/>
+      <c r="A41" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B41" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" s="1" t="n">
+        <v>14</v>
+      </c>
       <c r="D41" s="1" t="n">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="F41" t="n">
-        <v>2586766.62</v>
+        <v>100000</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="n">
         <v>1</v>
@@ -1813,19 +1815,19 @@
       <c r="B42" s="1" t="n"/>
       <c r="C42" s="1" t="n"/>
       <c r="D42" s="1" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>3119999.78</v>
+        <v>134607.97</v>
       </c>
       <c r="G42" t="n">
-        <v>1127360.23</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -1837,7 +1839,7 @@
         <v>1</v>
       </c>
       <c r="L42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1845,19 +1847,19 @@
       <c r="B43" s="1" t="n"/>
       <c r="C43" s="1" t="n"/>
       <c r="D43" s="1" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>2661968.43</v>
+        <v>167881.56</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -1877,19 +1879,19 @@
       <c r="B44" s="1" t="n"/>
       <c r="C44" s="1" t="n"/>
       <c r="D44" s="1" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>3120000</v>
+        <v>209003.65</v>
       </c>
       <c r="G44" t="n">
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -1901,7 +1903,7 @@
         <v>1</v>
       </c>
       <c r="L44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1909,19 +1911,19 @@
       <c r="B45" s="1" t="n"/>
       <c r="C45" s="1" t="n"/>
       <c r="D45" s="1" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>2527144.8</v>
+        <v>271125.72</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -1933,7 +1935,7 @@
         <v>1</v>
       </c>
       <c r="L45" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1941,41 +1943,1197 @@
       <c r="B46" s="1" t="n"/>
       <c r="C46" s="1" t="n"/>
       <c r="D46" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>389644.14</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>-0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1</v>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="1" t="n"/>
+      <c r="C47" s="1" t="n"/>
+      <c r="D47" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>537761.22</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1</v>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="1" t="n"/>
+      <c r="C48" s="1" t="n"/>
+      <c r="D48" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>744159.1800000001</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1</v>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="1" t="n"/>
+      <c r="C49" s="1" t="n"/>
+      <c r="D49" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1052163.1</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>1</v>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n"/>
+      <c r="B50" s="1" t="n"/>
+      <c r="C50" s="1" t="n"/>
+      <c r="D50" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1341745.42</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1</v>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="n">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="1" t="n"/>
+      <c r="C51" s="1" t="n"/>
+      <c r="D51" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1697918.89</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>1</v>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="n">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n"/>
+      <c r="B52" s="1" t="n"/>
+      <c r="C52" s="1" t="n"/>
+      <c r="D52" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1984375.77</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1</v>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="n">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n"/>
+      <c r="B53" s="1" t="n"/>
+      <c r="C53" s="1" t="n"/>
+      <c r="D53" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>2240267.81</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1</v>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="n">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="1" t="n"/>
+      <c r="C54" s="1" t="n"/>
+      <c r="D54" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>2482564.51</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1</v>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="n">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n"/>
+      <c r="B55" s="1" t="n"/>
+      <c r="C55" s="1" t="n"/>
+      <c r="D55" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>2684560.1</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1</v>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="n">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="1" t="n"/>
+      <c r="C56" s="1" t="n"/>
+      <c r="D56" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>2837134.93</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>1</v>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="n">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="1" t="n"/>
+      <c r="C57" s="1" t="n"/>
+      <c r="D57" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>3039664.14</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1174920.85</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1</v>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n"/>
+      <c r="B58" s="1" t="n"/>
+      <c r="C58" s="1" t="n"/>
+      <c r="D58" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>2210581.18</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>1</v>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="n">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n"/>
+      <c r="B59" s="1" t="n"/>
+      <c r="C59" s="1" t="n"/>
+      <c r="D59" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>2586766.29</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1</v>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n"/>
+      <c r="B60" s="1" t="n"/>
+      <c r="C60" s="1" t="n"/>
+      <c r="D60" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>3120000</v>
+      </c>
+      <c r="G60" t="n">
+        <v>1127359.85</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1</v>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n"/>
+      <c r="B61" s="1" t="n"/>
+      <c r="C61" s="1" t="n"/>
+      <c r="D61" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>2661969.08</v>
+      </c>
+      <c r="G61" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1</v>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n"/>
+      <c r="B62" s="1" t="n"/>
+      <c r="C62" s="1" t="n"/>
+      <c r="D62" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>3119999.35</v>
+      </c>
+      <c r="G62" t="n">
+        <v>999998.71</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>1</v>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n"/>
+      <c r="B63" s="1" t="n"/>
+      <c r="C63" s="1" t="n"/>
+      <c r="D63" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>2527145.35</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>-0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1</v>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="n">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n"/>
+      <c r="B64" s="1" t="n"/>
+      <c r="C64" s="1" t="n"/>
+      <c r="D64" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>2784959.93</v>
-      </c>
-      <c r="G46" t="n">
-        <v>3008872.9</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1</v>
-      </c>
-      <c r="K46" t="n">
-        <v>1</v>
-      </c>
-      <c r="L46" t="n">
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>2784960.54</v>
+      </c>
+      <c r="G64" t="n">
+        <v>3008873.55</v>
+      </c>
+      <c r="H64" t="n">
+        <v>-0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1</v>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n"/>
+      <c r="B65" s="1" t="n"/>
+      <c r="C65" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="D65" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="E65" t="n">
+        <v>100000</v>
+      </c>
+      <c r="F65" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>1</v>
+      </c>
+      <c r="J65" t="n">
+        <v>1</v>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n"/>
+      <c r="B66" s="1" t="n"/>
+      <c r="C66" s="1" t="n"/>
+      <c r="D66" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>141018.27</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>1</v>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n"/>
+      <c r="B67" s="1" t="n"/>
+      <c r="C67" s="1" t="n"/>
+      <c r="D67" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>229117.79</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1</v>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n"/>
+      <c r="B68" s="1" t="n"/>
+      <c r="C68" s="1" t="n"/>
+      <c r="D68" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>464119.69</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>1</v>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n"/>
+      <c r="B69" s="1" t="n"/>
+      <c r="C69" s="1" t="n"/>
+      <c r="D69" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>874749.54</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1</v>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n"/>
+      <c r="B70" s="1" t="n"/>
+      <c r="C70" s="1" t="n"/>
+      <c r="D70" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>1365262.1</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1</v>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n"/>
+      <c r="B71" s="1" t="n"/>
+      <c r="C71" s="1" t="n"/>
+      <c r="D71" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>1688062.75</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>1</v>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n"/>
+      <c r="B72" s="1" t="n"/>
+      <c r="C72" s="1" t="n"/>
+      <c r="D72" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="n">
+        <v>1954069.52</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1</v>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n"/>
+      <c r="B73" s="1" t="n"/>
+      <c r="C73" s="1" t="n"/>
+      <c r="D73" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" t="n">
+        <v>2212139.07</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1</v>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="n">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n"/>
+      <c r="B74" s="1" t="n"/>
+      <c r="C74" s="1" t="n"/>
+      <c r="D74" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>2419830.37</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1</v>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="n">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n"/>
+      <c r="B75" s="1" t="n"/>
+      <c r="C75" s="1" t="n"/>
+      <c r="D75" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0</v>
+      </c>
+      <c r="F75" t="n">
+        <v>2635600.38</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1</v>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="n">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n"/>
+      <c r="B76" s="1" t="n"/>
+      <c r="C76" s="1" t="n"/>
+      <c r="D76" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0</v>
+      </c>
+      <c r="F76" t="n">
+        <v>2781118.69</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1</v>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="n">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n"/>
+      <c r="B77" s="1" t="n"/>
+      <c r="C77" s="1" t="n"/>
+      <c r="D77" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0</v>
+      </c>
+      <c r="F77" t="n">
+        <v>2972604.25</v>
+      </c>
+      <c r="G77" t="n">
+        <v>1123575.49</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1</v>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n"/>
+      <c r="B78" s="1" t="n"/>
+      <c r="C78" s="1" t="n"/>
+      <c r="D78" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0</v>
+      </c>
+      <c r="F78" t="n">
+        <v>2190862.36</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1</v>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="n">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n"/>
+      <c r="B79" s="1" t="n"/>
+      <c r="C79" s="1" t="n"/>
+      <c r="D79" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0</v>
+      </c>
+      <c r="F79" t="n">
+        <v>2583340.06</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>1</v>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n"/>
+      <c r="B80" s="1" t="n"/>
+      <c r="C80" s="1" t="n"/>
+      <c r="D80" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0</v>
+      </c>
+      <c r="F80" t="n">
+        <v>3120000</v>
+      </c>
+      <c r="G80" t="n">
+        <v>1134885.62</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>1</v>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n"/>
+      <c r="B81" s="1" t="n"/>
+      <c r="C81" s="1" t="n"/>
+      <c r="D81" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0</v>
+      </c>
+      <c r="F81" t="n">
+        <v>2659326.34</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>1</v>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="n">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n"/>
+      <c r="B82" s="1" t="n"/>
+      <c r="C82" s="1" t="n"/>
+      <c r="D82" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0</v>
+      </c>
+      <c r="F82" t="n">
+        <v>3120000</v>
+      </c>
+      <c r="G82" t="n">
+        <v>3660475.91</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>1</v>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A2:A22"/>
-    <mergeCell ref="A23:A46"/>
-    <mergeCell ref="B2:B22"/>
-    <mergeCell ref="B23:B46"/>
+  <mergeCells count="8">
+    <mergeCell ref="A2:A40"/>
+    <mergeCell ref="A41:A82"/>
+    <mergeCell ref="B2:B40"/>
+    <mergeCell ref="B41:B82"/>
     <mergeCell ref="C2:C22"/>
-    <mergeCell ref="C23:C46"/>
+    <mergeCell ref="C23:C40"/>
+    <mergeCell ref="C41:C64"/>
+    <mergeCell ref="C65:C82"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
